--- a/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
+++ b/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb49849.IND\Desktop\ShellTest\src\main\java\com\Shell\qa\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb49849.IND\git\Framework\ShellTest\src\main\java\com\Shell\qa\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCB25AC-8F89-490A-813B-61A2269F3B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5AF641-9ACB-466A-8259-9A497F224057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3E99FE3A-74EA-45CD-8159-3B7EB1DC3932}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{3E99FE3A-74EA-45CD-8159-3B7EB1DC3932}"/>
   </bookViews>
   <sheets>
     <sheet name="POM TestCases" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>LoginPageTest</t>
-  </si>
-  <si>
-    <t>HomePageTest</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>HiP3rf0rm@ncefuel</t>
+  </si>
+  <si>
+    <t>TC02_HomePageTest</t>
+  </si>
+  <si>
+    <t>TC01_LoginPageTest</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE0DFCA-6B94-430A-AA2D-9F73C46EC2B9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -539,9 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B3DD0-C95F-441D-80BB-1B5EE397BE81}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -551,37 +549,37 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4"/>
     </row>

--- a/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
+++ b/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb49849.IND\git\Framework\ShellTest\src\main\java\com\Shell\qa\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5AF641-9ACB-466A-8259-9A497F224057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF67EEE2-C28B-4CEA-9A7E-37851A871DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{3E99FE3A-74EA-45CD-8159-3B7EB1DC3932}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>TCID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>TC01_LoginPageTest</t>
+  </si>
+  <si>
+    <t>AutomationMultiPayerSingleAccount</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B3DD0-C95F-441D-80BB-1B5EE397BE81}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -571,7 +576,7 @@
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>

--- a/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
+++ b/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb49849.IND\git\Framework\ShellTest\src\main\java\com\Shell\qa\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb49849.IND\git\Framework\ShellTest\Framework\ShellTest\src\main\java\com\Shell\qa\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF67EEE2-C28B-4CEA-9A7E-37851A871DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BFD62-87DD-404B-908E-ABAE48AD2992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{3E99FE3A-74EA-45CD-8159-3B7EB1DC3932}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>TCID</t>
   </si>
@@ -60,7 +60,10 @@
     <t>TC01_LoginPageTest</t>
   </si>
   <si>
-    <t>AutomationMultiPayerSingleAccount</t>
+    <t>SinglePayerMultiAccount</t>
+  </si>
+  <si>
+    <t>AutomationSinglePayerMultiAccount</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B3DD0-C95F-441D-80BB-1B5EE397BE81}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,36 +577,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{7789CAFA-15D6-4316-A8F6-DDA6E1FD0D47}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{F8B6B991-7D70-4B7B-A330-8B60C7EDE3D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
+++ b/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb49849.IND\git\Framework\ShellTest\Framework\ShellTest\src\main\java\com\Shell\qa\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45BFD62-87DD-404B-908E-ABAE48AD2992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E6591-81E8-4D35-B349-26C4DE980F5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{3E99FE3A-74EA-45CD-8159-3B7EB1DC3932}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
+++ b/ShellTest/src/main/java/com/Shell/qa/TestData/POMTestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb49849.IND\git\Framework\ShellTest\Framework\ShellTest\src\main\java\com\Shell\qa\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E6591-81E8-4D35-B349-26C4DE980F5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920668B4-533F-41CC-BEC1-4BB02332897B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{3E99FE3A-74EA-45CD-8159-3B7EB1DC3932}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{3E99FE3A-74EA-45CD-8159-3B7EB1DC3932}"/>
   </bookViews>
   <sheets>
     <sheet name="POM TestCases" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE0DFCA-6B94-430A-AA2D-9F73C46EC2B9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B3DD0-C95F-441D-80BB-1B5EE397BE81}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
